--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="332">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,9 @@
     <t>['70', '86', '90']</t>
   </si>
   <si>
+    <t>['5', '52', '84', '90']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -1001,6 +1004,12 @@
   </si>
   <si>
     <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['43', '64']</t>
+  </si>
+  <si>
+    <t>['45+1', '63', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP223"/>
+  <dimension ref="A1:BP226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1699,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ2">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1827,7 +1836,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -2114,7 +2123,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ4">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2239,7 +2248,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2320,7 +2329,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ5">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2523,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ6">
         <v>0.83</v>
@@ -2857,7 +2866,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -3269,7 +3278,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3347,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ10">
         <v>1.42</v>
@@ -3475,7 +3484,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3887,7 +3896,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -4093,7 +4102,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4586,7 +4595,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ16">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR16">
         <v>1.71</v>
@@ -4995,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ18">
         <v>0.83</v>
@@ -5123,7 +5132,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5201,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ19">
         <v>1.22</v>
@@ -5329,7 +5338,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5741,7 +5750,7 @@
         <v>85</v>
       </c>
       <c r="P22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5822,7 +5831,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ22">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.55</v>
@@ -5947,7 +5956,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q23">
         <v>2.74</v>
@@ -6231,10 +6240,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ24">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -6359,7 +6368,7 @@
         <v>94</v>
       </c>
       <c r="P25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6565,7 +6574,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6646,7 +6655,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ26">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR26">
         <v>1.39</v>
@@ -7055,7 +7064,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ28">
         <v>0.89</v>
@@ -7389,7 +7398,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q30">
         <v>2.88</v>
@@ -7879,10 +7888,10 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ32">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR32">
         <v>1.94</v>
@@ -8213,7 +8222,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8291,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ34">
         <v>0.9399999999999999</v>
@@ -8419,7 +8428,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8706,7 +8715,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ36">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR36">
         <v>1.88</v>
@@ -8831,7 +8840,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8912,7 +8921,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ37">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>1.24</v>
@@ -9243,7 +9252,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9324,7 +9333,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ39">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9449,7 +9458,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q40">
         <v>3.1</v>
@@ -9733,7 +9742,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ41">
         <v>1.21</v>
@@ -10067,7 +10076,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10685,7 +10694,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10891,7 +10900,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10969,7 +10978,7 @@
         <v>1.67</v>
       </c>
       <c r="AP47">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ47">
         <v>1.22</v>
@@ -11303,7 +11312,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11384,7 +11393,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ49">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR49">
         <v>1.07</v>
@@ -11509,7 +11518,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11590,7 +11599,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ50">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR50">
         <v>2.02</v>
@@ -11793,7 +11802,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ51">
         <v>1.21</v>
@@ -12127,7 +12136,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -12333,7 +12342,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12411,7 +12420,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ54">
         <v>0.83</v>
@@ -12745,7 +12754,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12826,7 +12835,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR56">
         <v>2.01</v>
@@ -12951,7 +12960,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q57">
         <v>4.2</v>
@@ -13363,7 +13372,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13569,7 +13578,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q60">
         <v>3.84</v>
@@ -13647,10 +13656,10 @@
         <v>2.25</v>
       </c>
       <c r="AP60">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ60">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR60">
         <v>1.91</v>
@@ -14187,7 +14196,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14393,7 +14402,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14471,7 +14480,7 @@
         <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ64">
         <v>1.22</v>
@@ -14805,7 +14814,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15011,7 +15020,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -15092,7 +15101,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ67">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -15217,7 +15226,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q68">
         <v>2.89</v>
@@ -15295,7 +15304,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15423,7 +15432,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q69">
         <v>3.92</v>
@@ -15629,7 +15638,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15710,7 +15719,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ70">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR70">
         <v>1.5</v>
@@ -15835,7 +15844,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16041,7 +16050,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -16119,7 +16128,7 @@
         <v>1.83</v>
       </c>
       <c r="AP72">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ72">
         <v>1.37</v>
@@ -16737,7 +16746,7 @@
         <v>0.83</v>
       </c>
       <c r="AP75">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ75">
         <v>0.83</v>
@@ -16865,7 +16874,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17071,7 +17080,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17355,7 +17364,7 @@
         <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ78">
         <v>1.42</v>
@@ -17564,7 +17573,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ79">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR79">
         <v>1.91</v>
@@ -17973,7 +17982,7 @@
         <v>0.43</v>
       </c>
       <c r="AP81">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -18101,7 +18110,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18182,7 +18191,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ82">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR82">
         <v>1.65</v>
@@ -18513,7 +18522,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18800,7 +18809,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ85">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR85">
         <v>1.56</v>
@@ -19006,7 +19015,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ86">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR86">
         <v>1.8</v>
@@ -19209,10 +19218,10 @@
         <v>1.29</v>
       </c>
       <c r="AP87">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ87">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR87">
         <v>1.48</v>
@@ -19337,7 +19346,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19543,7 +19552,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -20033,7 +20042,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ91">
         <v>0.83</v>
@@ -20239,7 +20248,7 @@
         <v>0.88</v>
       </c>
       <c r="AP92">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ92">
         <v>0.83</v>
@@ -20651,10 +20660,10 @@
         <v>2.14</v>
       </c>
       <c r="AP94">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ94">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR94">
         <v>1.47</v>
@@ -20985,7 +20994,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -21191,7 +21200,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21397,7 +21406,7 @@
         <v>94</v>
       </c>
       <c r="P98" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21809,7 +21818,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21887,10 +21896,10 @@
         <v>1.57</v>
       </c>
       <c r="AP100">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ100">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR100">
         <v>1.82</v>
@@ -22015,7 +22024,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -22093,10 +22102,10 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ101">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR101">
         <v>2.17</v>
@@ -22221,7 +22230,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22839,7 +22848,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23045,7 +23054,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -23123,7 +23132,7 @@
         <v>1.44</v>
       </c>
       <c r="AP106">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ106">
         <v>1.37</v>
@@ -23332,7 +23341,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ107">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR107">
         <v>1.56</v>
@@ -23457,7 +23466,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23538,7 +23547,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ108">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR108">
         <v>1.61</v>
@@ -23663,7 +23672,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23947,7 +23956,7 @@
         <v>0.44</v>
       </c>
       <c r="AP110">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ110">
         <v>1</v>
@@ -24771,7 +24780,7 @@
         <v>0.89</v>
       </c>
       <c r="AP114">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ114">
         <v>0.89</v>
@@ -24899,7 +24908,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -24980,7 +24989,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ115">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR115">
         <v>1.43</v>
@@ -25183,7 +25192,7 @@
         <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ116">
         <v>0.89</v>
@@ -25311,7 +25320,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25392,7 +25401,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ117">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR117">
         <v>1.45</v>
@@ -25517,7 +25526,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25598,7 +25607,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ118">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR118">
         <v>1.36</v>
@@ -26341,7 +26350,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26547,7 +26556,7 @@
         <v>164</v>
       </c>
       <c r="P123" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26753,7 +26762,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26834,7 +26843,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ124">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR124">
         <v>1.59</v>
@@ -26959,7 +26968,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -27040,7 +27049,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ125">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR125">
         <v>1.57</v>
@@ -27165,7 +27174,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27449,7 +27458,7 @@
         <v>0.78</v>
       </c>
       <c r="AP127">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ127">
         <v>0.9399999999999999</v>
@@ -27577,7 +27586,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q128">
         <v>2.62</v>
@@ -27655,10 +27664,10 @@
         <v>1.4</v>
       </c>
       <c r="AP128">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ128">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR128">
         <v>1.59</v>
@@ -28067,7 +28076,7 @@
         <v>0.7</v>
       </c>
       <c r="AP130">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ130">
         <v>0.9399999999999999</v>
@@ -28607,7 +28616,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q133">
         <v>2.34</v>
@@ -28891,10 +28900,10 @@
         <v>1.27</v>
       </c>
       <c r="AP134">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ134">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR134">
         <v>1.98</v>
@@ -29306,7 +29315,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ136">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR136">
         <v>1.61</v>
@@ -29431,7 +29440,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q137">
         <v>2.63</v>
@@ -29637,7 +29646,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29921,7 +29930,7 @@
         <v>0.73</v>
       </c>
       <c r="AP139">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ139">
         <v>0.83</v>
@@ -30333,7 +30342,7 @@
         <v>0.73</v>
       </c>
       <c r="AP141">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ141">
         <v>0.83</v>
@@ -30461,7 +30470,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30542,7 +30551,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ142">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR142">
         <v>1.26</v>
@@ -30873,7 +30882,7 @@
         <v>188</v>
       </c>
       <c r="P144" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q144">
         <v>3.1</v>
@@ -30954,7 +30963,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ144">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR144">
         <v>1.43</v>
@@ -31079,7 +31088,7 @@
         <v>85</v>
       </c>
       <c r="P145" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31491,7 +31500,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q147">
         <v>2.55</v>
@@ -31569,7 +31578,7 @@
         <v>0.67</v>
       </c>
       <c r="AP147">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ147">
         <v>0.83</v>
@@ -31778,7 +31787,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ148">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR148">
         <v>1.76</v>
@@ -32190,7 +32199,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ150">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR150">
         <v>1.38</v>
@@ -32315,7 +32324,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q151">
         <v>2.88</v>
@@ -32805,7 +32814,7 @@
         <v>1.42</v>
       </c>
       <c r="AP153">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ153">
         <v>1.21</v>
@@ -33011,7 +33020,7 @@
         <v>0.75</v>
       </c>
       <c r="AP154">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ154">
         <v>0.89</v>
@@ -33139,7 +33148,7 @@
         <v>194</v>
       </c>
       <c r="P155" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q155">
         <v>2.43</v>
@@ -33551,7 +33560,7 @@
         <v>82</v>
       </c>
       <c r="P157" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33632,7 +33641,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ157">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR157">
         <v>1.58</v>
@@ -34250,7 +34259,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ160">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR160">
         <v>1.48</v>
@@ -34375,7 +34384,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34581,7 +34590,7 @@
         <v>123</v>
       </c>
       <c r="P162" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34659,10 +34668,10 @@
         <v>1.54</v>
       </c>
       <c r="AP162">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ162">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR162">
         <v>1.91</v>
@@ -34787,7 +34796,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34865,7 +34874,7 @@
         <v>1.23</v>
       </c>
       <c r="AP163">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ163">
         <v>0.9399999999999999</v>
@@ -34993,7 +35002,7 @@
         <v>123</v>
       </c>
       <c r="P164" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q164">
         <v>2.59</v>
@@ -35199,7 +35208,7 @@
         <v>85</v>
       </c>
       <c r="P165" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35817,7 +35826,7 @@
         <v>202</v>
       </c>
       <c r="P168" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q168">
         <v>2.5</v>
@@ -35895,7 +35904,7 @@
         <v>0.62</v>
       </c>
       <c r="AP168">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ168">
         <v>1</v>
@@ -36229,7 +36238,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q170">
         <v>2.55</v>
@@ -36307,10 +36316,10 @@
         <v>1.64</v>
       </c>
       <c r="AP170">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ170">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR170">
         <v>1.87</v>
@@ -36435,7 +36444,7 @@
         <v>204</v>
       </c>
       <c r="P171" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q171">
         <v>2.77</v>
@@ -36928,7 +36937,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ173">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR173">
         <v>1.51</v>
@@ -37337,10 +37346,10 @@
         <v>1.64</v>
       </c>
       <c r="AP175">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ175">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR175">
         <v>1.77</v>
@@ -37543,7 +37552,7 @@
         <v>1.43</v>
       </c>
       <c r="AP176">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ176">
         <v>1.21</v>
@@ -37752,7 +37761,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ177">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR177">
         <v>1.68</v>
@@ -37877,7 +37886,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -38083,7 +38092,7 @@
         <v>85</v>
       </c>
       <c r="P179" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38289,7 +38298,7 @@
         <v>85</v>
       </c>
       <c r="P180" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q180">
         <v>2.6</v>
@@ -38573,7 +38582,7 @@
         <v>1.4</v>
       </c>
       <c r="AP181">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ181">
         <v>1.22</v>
@@ -38701,7 +38710,7 @@
         <v>212</v>
       </c>
       <c r="P182" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q182">
         <v>2.91</v>
@@ -38907,7 +38916,7 @@
         <v>213</v>
       </c>
       <c r="P183" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q183">
         <v>3.25</v>
@@ -38988,7 +38997,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ183">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR183">
         <v>1.63</v>
@@ -39319,7 +39328,7 @@
         <v>85</v>
       </c>
       <c r="P185" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q185">
         <v>2.63</v>
@@ -40143,7 +40152,7 @@
         <v>85</v>
       </c>
       <c r="P189" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -40427,7 +40436,7 @@
         <v>1</v>
       </c>
       <c r="AP190">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ190">
         <v>0.89</v>
@@ -40839,7 +40848,7 @@
         <v>1.07</v>
       </c>
       <c r="AP192">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ192">
         <v>0.9399999999999999</v>
@@ -41048,7 +41057,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ193">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR193">
         <v>1.63</v>
@@ -41251,7 +41260,7 @@
         <v>1.44</v>
       </c>
       <c r="AP194">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ194">
         <v>1.37</v>
@@ -41460,7 +41469,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ195">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR195">
         <v>1.63</v>
@@ -41585,7 +41594,7 @@
         <v>221</v>
       </c>
       <c r="P196" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q196">
         <v>3.08</v>
@@ -41791,7 +41800,7 @@
         <v>164</v>
       </c>
       <c r="P197" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q197">
         <v>3.62</v>
@@ -42284,7 +42293,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ199">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR199">
         <v>1.61</v>
@@ -42696,7 +42705,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ201">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR201">
         <v>1.59</v>
@@ -42821,7 +42830,7 @@
         <v>85</v>
       </c>
       <c r="P202" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q202">
         <v>2.38</v>
@@ -43105,7 +43114,7 @@
         <v>1.38</v>
       </c>
       <c r="AP203">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ203">
         <v>1.42</v>
@@ -43233,7 +43242,7 @@
         <v>225</v>
       </c>
       <c r="P204" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q204">
         <v>2.75</v>
@@ -43517,10 +43526,10 @@
         <v>1.29</v>
       </c>
       <c r="AP205">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ205">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR205">
         <v>1.69</v>
@@ -43723,7 +43732,7 @@
         <v>1.35</v>
       </c>
       <c r="AP206">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ206">
         <v>1.37</v>
@@ -43851,7 +43860,7 @@
         <v>85</v>
       </c>
       <c r="P207" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q207">
         <v>3.35</v>
@@ -43932,7 +43941,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ207">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR207">
         <v>1.75</v>
@@ -44057,7 +44066,7 @@
         <v>85</v>
       </c>
       <c r="P208" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q208">
         <v>3.2</v>
@@ -44959,7 +44968,7 @@
         <v>1.35</v>
       </c>
       <c r="AP212">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ212">
         <v>1.21</v>
@@ -45577,10 +45586,10 @@
         <v>1.44</v>
       </c>
       <c r="AP215">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ215">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR215">
         <v>1.66</v>
@@ -45786,7 +45795,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ216">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR216">
         <v>1.61</v>
@@ -45911,7 +45920,7 @@
         <v>230</v>
       </c>
       <c r="P217" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q217">
         <v>2.7</v>
@@ -46323,7 +46332,7 @@
         <v>187</v>
       </c>
       <c r="P219" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q219">
         <v>3.25</v>
@@ -46529,7 +46538,7 @@
         <v>85</v>
       </c>
       <c r="P220" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q220">
         <v>3.3</v>
@@ -46735,7 +46744,7 @@
         <v>149</v>
       </c>
       <c r="P221" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q221">
         <v>2.88</v>
@@ -47147,7 +47156,7 @@
         <v>232</v>
       </c>
       <c r="P223" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q223">
         <v>2.55</v>
@@ -47304,6 +47313,624 @@
       </c>
       <c r="BP223">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7710367</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45618.875</v>
+      </c>
+      <c r="F224">
+        <v>38</v>
+      </c>
+      <c r="G224" t="s">
+        <v>70</v>
+      </c>
+      <c r="H224" t="s">
+        <v>76</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>2</v>
+      </c>
+      <c r="L224">
+        <v>4</v>
+      </c>
+      <c r="M224">
+        <v>2</v>
+      </c>
+      <c r="N224">
+        <v>6</v>
+      </c>
+      <c r="O224" t="s">
+        <v>233</v>
+      </c>
+      <c r="P224" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q224">
+        <v>2.6</v>
+      </c>
+      <c r="R224">
+        <v>2.25</v>
+      </c>
+      <c r="S224">
+        <v>4</v>
+      </c>
+      <c r="T224">
+        <v>1.36</v>
+      </c>
+      <c r="U224">
+        <v>3</v>
+      </c>
+      <c r="V224">
+        <v>2.75</v>
+      </c>
+      <c r="W224">
+        <v>1.4</v>
+      </c>
+      <c r="X224">
+        <v>7</v>
+      </c>
+      <c r="Y224">
+        <v>1.1</v>
+      </c>
+      <c r="Z224">
+        <v>1.83</v>
+      </c>
+      <c r="AA224">
+        <v>3.8</v>
+      </c>
+      <c r="AB224">
+        <v>4.1</v>
+      </c>
+      <c r="AC224">
+        <v>1.05</v>
+      </c>
+      <c r="AD224">
+        <v>9.5</v>
+      </c>
+      <c r="AE224">
+        <v>1.25</v>
+      </c>
+      <c r="AF224">
+        <v>3.6</v>
+      </c>
+      <c r="AG224">
+        <v>1.79</v>
+      </c>
+      <c r="AH224">
+        <v>2.02</v>
+      </c>
+      <c r="AI224">
+        <v>1.67</v>
+      </c>
+      <c r="AJ224">
+        <v>2.1</v>
+      </c>
+      <c r="AK224">
+        <v>1.28</v>
+      </c>
+      <c r="AL224">
+        <v>1.22</v>
+      </c>
+      <c r="AM224">
+        <v>1.78</v>
+      </c>
+      <c r="AN224">
+        <v>2.33</v>
+      </c>
+      <c r="AO224">
+        <v>1.37</v>
+      </c>
+      <c r="AP224">
+        <v>2.37</v>
+      </c>
+      <c r="AQ224">
+        <v>1.3</v>
+      </c>
+      <c r="AR224">
+        <v>1.84</v>
+      </c>
+      <c r="AS224">
+        <v>1.48</v>
+      </c>
+      <c r="AT224">
+        <v>3.32</v>
+      </c>
+      <c r="AU224">
+        <v>5</v>
+      </c>
+      <c r="AV224">
+        <v>3</v>
+      </c>
+      <c r="AW224">
+        <v>8</v>
+      </c>
+      <c r="AX224">
+        <v>14</v>
+      </c>
+      <c r="AY224">
+        <v>15</v>
+      </c>
+      <c r="AZ224">
+        <v>23</v>
+      </c>
+      <c r="BA224">
+        <v>6</v>
+      </c>
+      <c r="BB224">
+        <v>2</v>
+      </c>
+      <c r="BC224">
+        <v>8</v>
+      </c>
+      <c r="BD224">
+        <v>1.51</v>
+      </c>
+      <c r="BE224">
+        <v>8</v>
+      </c>
+      <c r="BF224">
+        <v>3.17</v>
+      </c>
+      <c r="BG224">
+        <v>1.48</v>
+      </c>
+      <c r="BH224">
+        <v>2.48</v>
+      </c>
+      <c r="BI224">
+        <v>1.8</v>
+      </c>
+      <c r="BJ224">
+        <v>2</v>
+      </c>
+      <c r="BK224">
+        <v>2.35</v>
+      </c>
+      <c r="BL224">
+        <v>1.53</v>
+      </c>
+      <c r="BM224">
+        <v>3.15</v>
+      </c>
+      <c r="BN224">
+        <v>1.31</v>
+      </c>
+      <c r="BO224">
+        <v>3.7</v>
+      </c>
+      <c r="BP224">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7710368</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45619.08333333334</v>
+      </c>
+      <c r="F225">
+        <v>38</v>
+      </c>
+      <c r="G225" t="s">
+        <v>78</v>
+      </c>
+      <c r="H225" t="s">
+        <v>80</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>3</v>
+      </c>
+      <c r="N225">
+        <v>4</v>
+      </c>
+      <c r="O225" t="s">
+        <v>123</v>
+      </c>
+      <c r="P225" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q225">
+        <v>2.63</v>
+      </c>
+      <c r="R225">
+        <v>2.1</v>
+      </c>
+      <c r="S225">
+        <v>4.33</v>
+      </c>
+      <c r="T225">
+        <v>1.44</v>
+      </c>
+      <c r="U225">
+        <v>2.63</v>
+      </c>
+      <c r="V225">
+        <v>3</v>
+      </c>
+      <c r="W225">
+        <v>1.36</v>
+      </c>
+      <c r="X225">
+        <v>9</v>
+      </c>
+      <c r="Y225">
+        <v>1.07</v>
+      </c>
+      <c r="Z225">
+        <v>2.6</v>
+      </c>
+      <c r="AA225">
+        <v>3.34</v>
+      </c>
+      <c r="AB225">
+        <v>2.69</v>
+      </c>
+      <c r="AC225">
+        <v>1.06</v>
+      </c>
+      <c r="AD225">
+        <v>8.5</v>
+      </c>
+      <c r="AE225">
+        <v>1.33</v>
+      </c>
+      <c r="AF225">
+        <v>3.1</v>
+      </c>
+      <c r="AG225">
+        <v>2.05</v>
+      </c>
+      <c r="AH225">
+        <v>1.77</v>
+      </c>
+      <c r="AI225">
+        <v>1.83</v>
+      </c>
+      <c r="AJ225">
+        <v>1.83</v>
+      </c>
+      <c r="AK225">
+        <v>1.25</v>
+      </c>
+      <c r="AL225">
+        <v>1.25</v>
+      </c>
+      <c r="AM225">
+        <v>1.8</v>
+      </c>
+      <c r="AN225">
+        <v>2.06</v>
+      </c>
+      <c r="AO225">
+        <v>1.32</v>
+      </c>
+      <c r="AP225">
+        <v>1.95</v>
+      </c>
+      <c r="AQ225">
+        <v>1.4</v>
+      </c>
+      <c r="AR225">
+        <v>1.62</v>
+      </c>
+      <c r="AS225">
+        <v>1.35</v>
+      </c>
+      <c r="AT225">
+        <v>2.97</v>
+      </c>
+      <c r="AU225">
+        <v>4</v>
+      </c>
+      <c r="AV225">
+        <v>11</v>
+      </c>
+      <c r="AW225">
+        <v>9</v>
+      </c>
+      <c r="AX225">
+        <v>2</v>
+      </c>
+      <c r="AY225">
+        <v>19</v>
+      </c>
+      <c r="AZ225">
+        <v>14</v>
+      </c>
+      <c r="BA225">
+        <v>9</v>
+      </c>
+      <c r="BB225">
+        <v>4</v>
+      </c>
+      <c r="BC225">
+        <v>13</v>
+      </c>
+      <c r="BD225">
+        <v>1.64</v>
+      </c>
+      <c r="BE225">
+        <v>8</v>
+      </c>
+      <c r="BF225">
+        <v>2.77</v>
+      </c>
+      <c r="BG225">
+        <v>1.48</v>
+      </c>
+      <c r="BH225">
+        <v>2.48</v>
+      </c>
+      <c r="BI225">
+        <v>1.82</v>
+      </c>
+      <c r="BJ225">
+        <v>1.98</v>
+      </c>
+      <c r="BK225">
+        <v>2.35</v>
+      </c>
+      <c r="BL225">
+        <v>1.53</v>
+      </c>
+      <c r="BM225">
+        <v>3.15</v>
+      </c>
+      <c r="BN225">
+        <v>1.31</v>
+      </c>
+      <c r="BO225">
+        <v>4.4</v>
+      </c>
+      <c r="BP225">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7710369</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45619.08333333334</v>
+      </c>
+      <c r="F226">
+        <v>38</v>
+      </c>
+      <c r="G226" t="s">
+        <v>74</v>
+      </c>
+      <c r="H226" t="s">
+        <v>77</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>1</v>
+      </c>
+      <c r="O226" t="s">
+        <v>192</v>
+      </c>
+      <c r="P226" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q226">
+        <v>2.38</v>
+      </c>
+      <c r="R226">
+        <v>2.2</v>
+      </c>
+      <c r="S226">
+        <v>5</v>
+      </c>
+      <c r="T226">
+        <v>1.4</v>
+      </c>
+      <c r="U226">
+        <v>2.75</v>
+      </c>
+      <c r="V226">
+        <v>3</v>
+      </c>
+      <c r="W226">
+        <v>1.36</v>
+      </c>
+      <c r="X226">
+        <v>8</v>
+      </c>
+      <c r="Y226">
+        <v>1.08</v>
+      </c>
+      <c r="Z226">
+        <v>2.2</v>
+      </c>
+      <c r="AA226">
+        <v>3.44</v>
+      </c>
+      <c r="AB226">
+        <v>3.24</v>
+      </c>
+      <c r="AC226">
+        <v>1.05</v>
+      </c>
+      <c r="AD226">
+        <v>9</v>
+      </c>
+      <c r="AE226">
+        <v>1.3</v>
+      </c>
+      <c r="AF226">
+        <v>3.3</v>
+      </c>
+      <c r="AG226">
+        <v>1.98</v>
+      </c>
+      <c r="AH226">
+        <v>1.82</v>
+      </c>
+      <c r="AI226">
+        <v>1.83</v>
+      </c>
+      <c r="AJ226">
+        <v>1.83</v>
+      </c>
+      <c r="AK226">
+        <v>1.15</v>
+      </c>
+      <c r="AL226">
+        <v>1.22</v>
+      </c>
+      <c r="AM226">
+        <v>2</v>
+      </c>
+      <c r="AN226">
+        <v>2.11</v>
+      </c>
+      <c r="AO226">
+        <v>1.41</v>
+      </c>
+      <c r="AP226">
+        <v>2.16</v>
+      </c>
+      <c r="AQ226">
+        <v>1.33</v>
+      </c>
+      <c r="AR226">
+        <v>1.64</v>
+      </c>
+      <c r="AS226">
+        <v>1.29</v>
+      </c>
+      <c r="AT226">
+        <v>2.93</v>
+      </c>
+      <c r="AU226">
+        <v>3</v>
+      </c>
+      <c r="AV226">
+        <v>0</v>
+      </c>
+      <c r="AW226">
+        <v>3</v>
+      </c>
+      <c r="AX226">
+        <v>10</v>
+      </c>
+      <c r="AY226">
+        <v>7</v>
+      </c>
+      <c r="AZ226">
+        <v>13</v>
+      </c>
+      <c r="BA226">
+        <v>2</v>
+      </c>
+      <c r="BB226">
+        <v>9</v>
+      </c>
+      <c r="BC226">
+        <v>11</v>
+      </c>
+      <c r="BD226">
+        <v>1.51</v>
+      </c>
+      <c r="BE226">
+        <v>8</v>
+      </c>
+      <c r="BF226">
+        <v>3.17</v>
+      </c>
+      <c r="BG226">
+        <v>1.5</v>
+      </c>
+      <c r="BH226">
+        <v>2.4</v>
+      </c>
+      <c r="BI226">
+        <v>1.95</v>
+      </c>
+      <c r="BJ226">
+        <v>1.85</v>
+      </c>
+      <c r="BK226">
+        <v>2.43</v>
+      </c>
+      <c r="BL226">
+        <v>1.49</v>
+      </c>
+      <c r="BM226">
+        <v>3.3</v>
+      </c>
+      <c r="BN226">
+        <v>1.29</v>
+      </c>
+      <c r="BO226">
+        <v>4.75</v>
+      </c>
+      <c r="BP226">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="334">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -718,6 +718,9 @@
     <t>['5', '52', '84', '90']</t>
   </si>
   <si>
+    <t>['30', '44']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -1010,6 +1013,9 @@
   </si>
   <si>
     <t>['45+1', '63', '90+2']</t>
+  </si>
+  <si>
+    <t>['10']</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP226"/>
+  <dimension ref="A1:BP228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1836,7 +1842,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -2120,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>1.4</v>
@@ -2248,7 +2254,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2535,7 +2541,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ6">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2866,7 +2872,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2947,7 +2953,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3278,7 +3284,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3484,7 +3490,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3896,7 +3902,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3974,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1.21</v>
@@ -4102,7 +4108,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4180,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ14">
         <v>1.21</v>
@@ -4389,7 +4395,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR15">
         <v>0.9399999999999999</v>
@@ -5007,7 +5013,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ18">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR18">
         <v>1.8</v>
@@ -5132,7 +5138,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5338,7 +5344,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5750,7 +5756,7 @@
         <v>85</v>
       </c>
       <c r="P22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5956,7 +5962,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q23">
         <v>2.74</v>
@@ -6368,7 +6374,7 @@
         <v>94</v>
       </c>
       <c r="P25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6446,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>0.89</v>
@@ -6574,7 +6580,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6858,7 +6864,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ27">
         <v>1.42</v>
@@ -7273,7 +7279,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ29">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR29">
         <v>1.46</v>
@@ -7398,7 +7404,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q30">
         <v>2.88</v>
@@ -7476,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
         <v>1.22</v>
@@ -8097,7 +8103,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ33">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR33">
         <v>1.77</v>
@@ -8222,7 +8228,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8428,7 +8434,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8840,7 +8846,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8918,7 +8924,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -9252,7 +9258,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9458,7 +9464,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q40">
         <v>3.1</v>
@@ -10076,7 +10082,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10363,7 +10369,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ44">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR44">
         <v>1.95</v>
@@ -10694,7 +10700,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10775,7 +10781,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ46">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -10900,7 +10906,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -11312,7 +11318,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11390,7 +11396,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ49">
         <v>1.4</v>
@@ -11518,7 +11524,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11596,7 +11602,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>1.3</v>
@@ -12136,7 +12142,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -12342,7 +12348,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12423,7 +12429,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ54">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR54">
         <v>2.02</v>
@@ -12626,7 +12632,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ55">
         <v>1.37</v>
@@ -12754,7 +12760,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12960,7 +12966,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q57">
         <v>4.2</v>
@@ -13247,7 +13253,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ58">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR58">
         <v>1.64</v>
@@ -13372,7 +13378,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13578,7 +13584,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q60">
         <v>3.84</v>
@@ -14071,7 +14077,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ62">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR62">
         <v>1.62</v>
@@ -14196,7 +14202,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14402,7 +14408,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14814,7 +14820,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14892,7 +14898,7 @@
         <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -15020,7 +15026,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -15226,7 +15232,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q68">
         <v>2.89</v>
@@ -15432,7 +15438,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q69">
         <v>3.92</v>
@@ -15638,7 +15644,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15844,7 +15850,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15925,7 +15931,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ71">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR71">
         <v>1.65</v>
@@ -16050,7 +16056,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -16334,7 +16340,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
         <v>1.42</v>
@@ -16540,7 +16546,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ74">
         <v>1.22</v>
@@ -16749,7 +16755,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ75">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR75">
         <v>1.46</v>
@@ -16874,7 +16880,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16952,10 +16958,10 @@
         <v>0.67</v>
       </c>
       <c r="AP76">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR76">
         <v>1.78</v>
@@ -17080,7 +17086,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -18110,7 +18116,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18522,7 +18528,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -19012,7 +19018,7 @@
         <v>2</v>
       </c>
       <c r="AP86">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86">
         <v>1.33</v>
@@ -19346,7 +19352,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19552,7 +19558,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19630,10 +19636,10 @@
         <v>0.71</v>
       </c>
       <c r="AP89">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ89">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR89">
         <v>1.24</v>
@@ -20045,7 +20051,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ91">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR91">
         <v>1.86</v>
@@ -20251,7 +20257,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ92">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR92">
         <v>2.21</v>
@@ -20866,7 +20872,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ95">
         <v>0.89</v>
@@ -20994,7 +21000,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -21200,7 +21206,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21406,7 +21412,7 @@
         <v>94</v>
       </c>
       <c r="P98" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21690,7 +21696,7 @@
         <v>1.63</v>
       </c>
       <c r="AP99">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
         <v>1.37</v>
@@ -21818,7 +21824,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -22024,7 +22030,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -22230,7 +22236,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22517,7 +22523,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ103">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR103">
         <v>1.41</v>
@@ -22723,7 +22729,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ104">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR104">
         <v>1.52</v>
@@ -22848,7 +22854,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22926,7 +22932,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ105">
         <v>0.9399999999999999</v>
@@ -23054,7 +23060,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -23466,7 +23472,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23672,7 +23678,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -24908,7 +24914,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -25320,7 +25326,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25526,7 +25532,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25604,7 +25610,7 @@
         <v>1.22</v>
       </c>
       <c r="AP118">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ118">
         <v>1.3</v>
@@ -26016,10 +26022,10 @@
         <v>0.89</v>
       </c>
       <c r="AP120">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR120">
         <v>1.8</v>
@@ -26350,7 +26356,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26556,7 +26562,7 @@
         <v>164</v>
       </c>
       <c r="P123" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26762,7 +26768,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26968,7 +26974,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -27174,7 +27180,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27252,10 +27258,10 @@
         <v>0.7</v>
       </c>
       <c r="AP126">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ126">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -27586,7 +27592,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q128">
         <v>2.62</v>
@@ -28491,7 +28497,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ132">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR132">
         <v>1.43</v>
@@ -28616,7 +28622,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q133">
         <v>2.34</v>
@@ -29106,7 +29112,7 @@
         <v>1.45</v>
       </c>
       <c r="AP135">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ135">
         <v>1.21</v>
@@ -29440,7 +29446,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q137">
         <v>2.63</v>
@@ -29518,7 +29524,7 @@
         <v>1.09</v>
       </c>
       <c r="AP137">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ137">
         <v>1.22</v>
@@ -29646,7 +29652,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29933,7 +29939,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ139">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR139">
         <v>1.63</v>
@@ -30345,7 +30351,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ141">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR141">
         <v>1.68</v>
@@ -30470,7 +30476,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30548,7 +30554,7 @@
         <v>1.67</v>
       </c>
       <c r="AP142">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ142">
         <v>1.33</v>
@@ -30882,7 +30888,7 @@
         <v>188</v>
       </c>
       <c r="P144" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q144">
         <v>3.1</v>
@@ -31088,7 +31094,7 @@
         <v>85</v>
       </c>
       <c r="P145" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31500,7 +31506,7 @@
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q147">
         <v>2.55</v>
@@ -31581,7 +31587,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ147">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR147">
         <v>1.73</v>
@@ -31784,7 +31790,7 @@
         <v>1.67</v>
       </c>
       <c r="AP148">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ148">
         <v>1.3</v>
@@ -32324,7 +32330,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q151">
         <v>2.88</v>
@@ -33148,7 +33154,7 @@
         <v>194</v>
       </c>
       <c r="P155" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q155">
         <v>2.43</v>
@@ -33560,7 +33566,7 @@
         <v>82</v>
       </c>
       <c r="P157" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34053,7 +34059,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ159">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR159">
         <v>1.56</v>
@@ -34384,7 +34390,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34462,7 +34468,7 @@
         <v>1.38</v>
       </c>
       <c r="AP161">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ161">
         <v>1.22</v>
@@ -34590,7 +34596,7 @@
         <v>123</v>
       </c>
       <c r="P162" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34796,7 +34802,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35002,7 +35008,7 @@
         <v>123</v>
       </c>
       <c r="P164" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q164">
         <v>2.59</v>
@@ -35208,7 +35214,7 @@
         <v>85</v>
       </c>
       <c r="P165" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35289,7 +35295,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ165">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR165">
         <v>1.37</v>
@@ -35701,7 +35707,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ167">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR167">
         <v>1.76</v>
@@ -35826,7 +35832,7 @@
         <v>202</v>
       </c>
       <c r="P168" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q168">
         <v>2.5</v>
@@ -36110,7 +36116,7 @@
         <v>1.15</v>
       </c>
       <c r="AP169">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ169">
         <v>1.42</v>
@@ -36238,7 +36244,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q170">
         <v>2.55</v>
@@ -36444,7 +36450,7 @@
         <v>204</v>
       </c>
       <c r="P171" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q171">
         <v>2.77</v>
@@ -37140,7 +37146,7 @@
         <v>1.14</v>
       </c>
       <c r="AP174">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ174">
         <v>0.9399999999999999</v>
@@ -37758,7 +37764,7 @@
         <v>1.53</v>
       </c>
       <c r="AP177">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ177">
         <v>1.33</v>
@@ -37886,7 +37892,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -38092,7 +38098,7 @@
         <v>85</v>
       </c>
       <c r="P179" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38298,7 +38304,7 @@
         <v>85</v>
       </c>
       <c r="P180" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q180">
         <v>2.6</v>
@@ -38379,7 +38385,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ180">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR180">
         <v>1.8</v>
@@ -38710,7 +38716,7 @@
         <v>212</v>
       </c>
       <c r="P182" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q182">
         <v>2.91</v>
@@ -38916,7 +38922,7 @@
         <v>213</v>
       </c>
       <c r="P183" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q183">
         <v>3.25</v>
@@ -39328,7 +39334,7 @@
         <v>85</v>
       </c>
       <c r="P185" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q185">
         <v>2.63</v>
@@ -39406,10 +39412,10 @@
         <v>0.57</v>
       </c>
       <c r="AP185">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ185">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR185">
         <v>1.67</v>
@@ -39612,10 +39618,10 @@
         <v>0.93</v>
       </c>
       <c r="AP186">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ186">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR186">
         <v>1.27</v>
@@ -40152,7 +40158,7 @@
         <v>85</v>
       </c>
       <c r="P189" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -40230,7 +40236,7 @@
         <v>1.27</v>
       </c>
       <c r="AP189">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ189">
         <v>1.42</v>
@@ -40645,7 +40651,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ191">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR191">
         <v>1.49</v>
@@ -41466,7 +41472,7 @@
         <v>1.38</v>
       </c>
       <c r="AP195">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ195">
         <v>1.4</v>
@@ -41594,7 +41600,7 @@
         <v>221</v>
       </c>
       <c r="P196" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q196">
         <v>3.08</v>
@@ -41675,7 +41681,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ196">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR196">
         <v>1.6</v>
@@ -41800,7 +41806,7 @@
         <v>164</v>
       </c>
       <c r="P197" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q197">
         <v>3.62</v>
@@ -42496,7 +42502,7 @@
         <v>1</v>
       </c>
       <c r="AP200">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ200">
         <v>0.89</v>
@@ -42830,7 +42836,7 @@
         <v>85</v>
       </c>
       <c r="P202" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q202">
         <v>2.38</v>
@@ -43242,7 +43248,7 @@
         <v>225</v>
       </c>
       <c r="P204" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q204">
         <v>2.75</v>
@@ -43323,7 +43329,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ204">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR204">
         <v>1.32</v>
@@ -43860,7 +43866,7 @@
         <v>85</v>
       </c>
       <c r="P207" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q207">
         <v>3.35</v>
@@ -44066,7 +44072,7 @@
         <v>85</v>
       </c>
       <c r="P208" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q208">
         <v>3.2</v>
@@ -44350,7 +44356,7 @@
         <v>1</v>
       </c>
       <c r="AP209">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ209">
         <v>0.89</v>
@@ -44765,7 +44771,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ211">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR211">
         <v>1.66</v>
@@ -45380,7 +45386,7 @@
         <v>0.88</v>
       </c>
       <c r="AP214">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ214">
         <v>1</v>
@@ -45920,7 +45926,7 @@
         <v>230</v>
       </c>
       <c r="P217" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q217">
         <v>2.7</v>
@@ -46001,7 +46007,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ217">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR217">
         <v>1.6</v>
@@ -46332,7 +46338,7 @@
         <v>187</v>
       </c>
       <c r="P219" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q219">
         <v>3.25</v>
@@ -46538,7 +46544,7 @@
         <v>85</v>
       </c>
       <c r="P220" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q220">
         <v>3.3</v>
@@ -46744,7 +46750,7 @@
         <v>149</v>
       </c>
       <c r="P221" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q221">
         <v>2.88</v>
@@ -47156,7 +47162,7 @@
         <v>232</v>
       </c>
       <c r="P223" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q223">
         <v>2.55</v>
@@ -47362,7 +47368,7 @@
         <v>233</v>
       </c>
       <c r="P224" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q224">
         <v>2.6</v>
@@ -47455,10 +47461,10 @@
         <v>3.32</v>
       </c>
       <c r="AU224">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV224">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW224">
         <v>8</v>
@@ -47467,10 +47473,10 @@
         <v>14</v>
       </c>
       <c r="AY224">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ224">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="BA224">
         <v>6</v>
@@ -47535,7 +47541,7 @@
         <v>69</v>
       </c>
       <c r="E225" s="2">
-        <v>45619.08333333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F225">
         <v>38</v>
@@ -47568,7 +47574,7 @@
         <v>123</v>
       </c>
       <c r="P225" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q225">
         <v>2.63</v>
@@ -47661,19 +47667,19 @@
         <v>2.97</v>
       </c>
       <c r="AU225">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV225">
         <v>11</v>
       </c>
       <c r="AW225">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX225">
         <v>2</v>
       </c>
       <c r="AY225">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ225">
         <v>14</v>
@@ -47741,7 +47747,7 @@
         <v>69</v>
       </c>
       <c r="E226" s="2">
-        <v>45619.08333333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F226">
         <v>38</v>
@@ -47867,22 +47873,22 @@
         <v>2.93</v>
       </c>
       <c r="AU226">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV226">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW226">
         <v>3</v>
       </c>
       <c r="AX226">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY226">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ226">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA226">
         <v>2</v>
@@ -47931,6 +47937,418 @@
       </c>
       <c r="BP226">
         <v>1.1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7710370</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45620.08333333334</v>
+      </c>
+      <c r="F227">
+        <v>38</v>
+      </c>
+      <c r="G227" t="s">
+        <v>72</v>
+      </c>
+      <c r="H227" t="s">
+        <v>71</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227" t="s">
+        <v>179</v>
+      </c>
+      <c r="P227" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q227">
+        <v>3.2</v>
+      </c>
+      <c r="R227">
+        <v>2.1</v>
+      </c>
+      <c r="S227">
+        <v>3.5</v>
+      </c>
+      <c r="T227">
+        <v>1.44</v>
+      </c>
+      <c r="U227">
+        <v>2.63</v>
+      </c>
+      <c r="V227">
+        <v>3</v>
+      </c>
+      <c r="W227">
+        <v>1.36</v>
+      </c>
+      <c r="X227">
+        <v>9</v>
+      </c>
+      <c r="Y227">
+        <v>1.07</v>
+      </c>
+      <c r="Z227">
+        <v>2.35</v>
+      </c>
+      <c r="AA227">
+        <v>3.2</v>
+      </c>
+      <c r="AB227">
+        <v>2.8</v>
+      </c>
+      <c r="AC227">
+        <v>1.06</v>
+      </c>
+      <c r="AD227">
+        <v>8.5</v>
+      </c>
+      <c r="AE227">
+        <v>1.33</v>
+      </c>
+      <c r="AF227">
+        <v>3.1</v>
+      </c>
+      <c r="AG227">
+        <v>2.01</v>
+      </c>
+      <c r="AH227">
+        <v>1.81</v>
+      </c>
+      <c r="AI227">
+        <v>1.8</v>
+      </c>
+      <c r="AJ227">
+        <v>1.91</v>
+      </c>
+      <c r="AK227">
+        <v>1.4</v>
+      </c>
+      <c r="AL227">
+        <v>1.25</v>
+      </c>
+      <c r="AM227">
+        <v>1.53</v>
+      </c>
+      <c r="AN227">
+        <v>1.53</v>
+      </c>
+      <c r="AO227">
+        <v>0.83</v>
+      </c>
+      <c r="AP227">
+        <v>1.5</v>
+      </c>
+      <c r="AQ227">
+        <v>0.84</v>
+      </c>
+      <c r="AR227">
+        <v>1.59</v>
+      </c>
+      <c r="AS227">
+        <v>1.35</v>
+      </c>
+      <c r="AT227">
+        <v>2.94</v>
+      </c>
+      <c r="AU227">
+        <v>3</v>
+      </c>
+      <c r="AV227">
+        <v>4</v>
+      </c>
+      <c r="AW227">
+        <v>9</v>
+      </c>
+      <c r="AX227">
+        <v>10</v>
+      </c>
+      <c r="AY227">
+        <v>14</v>
+      </c>
+      <c r="AZ227">
+        <v>16</v>
+      </c>
+      <c r="BA227">
+        <v>5</v>
+      </c>
+      <c r="BB227">
+        <v>5</v>
+      </c>
+      <c r="BC227">
+        <v>10</v>
+      </c>
+      <c r="BD227">
+        <v>1.85</v>
+      </c>
+      <c r="BE227">
+        <v>7.5</v>
+      </c>
+      <c r="BF227">
+        <v>2.33</v>
+      </c>
+      <c r="BG227">
+        <v>1.4</v>
+      </c>
+      <c r="BH227">
+        <v>2.73</v>
+      </c>
+      <c r="BI227">
+        <v>1.69</v>
+      </c>
+      <c r="BJ227">
+        <v>2.04</v>
+      </c>
+      <c r="BK227">
+        <v>2.15</v>
+      </c>
+      <c r="BL227">
+        <v>1.62</v>
+      </c>
+      <c r="BM227">
+        <v>2.83</v>
+      </c>
+      <c r="BN227">
+        <v>1.37</v>
+      </c>
+      <c r="BO227">
+        <v>3.88</v>
+      </c>
+      <c r="BP227">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7710372</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45620.08333333334</v>
+      </c>
+      <c r="F228">
+        <v>38</v>
+      </c>
+      <c r="G228" t="s">
+        <v>81</v>
+      </c>
+      <c r="H228" t="s">
+        <v>79</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>3</v>
+      </c>
+      <c r="L228">
+        <v>2</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228">
+        <v>3</v>
+      </c>
+      <c r="O228" t="s">
+        <v>234</v>
+      </c>
+      <c r="P228" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q228">
+        <v>2.88</v>
+      </c>
+      <c r="R228">
+        <v>2.1</v>
+      </c>
+      <c r="S228">
+        <v>3.75</v>
+      </c>
+      <c r="T228">
+        <v>1.4</v>
+      </c>
+      <c r="U228">
+        <v>2.75</v>
+      </c>
+      <c r="V228">
+        <v>3</v>
+      </c>
+      <c r="W228">
+        <v>1.36</v>
+      </c>
+      <c r="X228">
+        <v>9</v>
+      </c>
+      <c r="Y228">
+        <v>1.07</v>
+      </c>
+      <c r="Z228">
+        <v>2.24</v>
+      </c>
+      <c r="AA228">
+        <v>3.2</v>
+      </c>
+      <c r="AB228">
+        <v>2.9</v>
+      </c>
+      <c r="AC228">
+        <v>1.06</v>
+      </c>
+      <c r="AD228">
+        <v>8.5</v>
+      </c>
+      <c r="AE228">
+        <v>1.33</v>
+      </c>
+      <c r="AF228">
+        <v>3.1</v>
+      </c>
+      <c r="AG228">
+        <v>2.02</v>
+      </c>
+      <c r="AH228">
+        <v>1.8</v>
+      </c>
+      <c r="AI228">
+        <v>1.73</v>
+      </c>
+      <c r="AJ228">
+        <v>2</v>
+      </c>
+      <c r="AK228">
+        <v>1.33</v>
+      </c>
+      <c r="AL228">
+        <v>1.25</v>
+      </c>
+      <c r="AM228">
+        <v>1.63</v>
+      </c>
+      <c r="AN228">
+        <v>1.44</v>
+      </c>
+      <c r="AO228">
+        <v>0.83</v>
+      </c>
+      <c r="AP228">
+        <v>1.53</v>
+      </c>
+      <c r="AQ228">
+        <v>0.79</v>
+      </c>
+      <c r="AR228">
+        <v>1.26</v>
+      </c>
+      <c r="AS228">
+        <v>1.47</v>
+      </c>
+      <c r="AT228">
+        <v>2.73</v>
+      </c>
+      <c r="AU228">
+        <v>7</v>
+      </c>
+      <c r="AV228">
+        <v>5</v>
+      </c>
+      <c r="AW228">
+        <v>7</v>
+      </c>
+      <c r="AX228">
+        <v>11</v>
+      </c>
+      <c r="AY228">
+        <v>17</v>
+      </c>
+      <c r="AZ228">
+        <v>20</v>
+      </c>
+      <c r="BA228">
+        <v>5</v>
+      </c>
+      <c r="BB228">
+        <v>6</v>
+      </c>
+      <c r="BC228">
+        <v>11</v>
+      </c>
+      <c r="BD228">
+        <v>2.05</v>
+      </c>
+      <c r="BE228">
+        <v>7.5</v>
+      </c>
+      <c r="BF228">
+        <v>2.05</v>
+      </c>
+      <c r="BG228">
+        <v>1.5</v>
+      </c>
+      <c r="BH228">
+        <v>2.4</v>
+      </c>
+      <c r="BI228">
+        <v>1.85</v>
+      </c>
+      <c r="BJ228">
+        <v>1.95</v>
+      </c>
+      <c r="BK228">
+        <v>2.43</v>
+      </c>
+      <c r="BL228">
+        <v>1.49</v>
+      </c>
+      <c r="BM228">
+        <v>3.3</v>
+      </c>
+      <c r="BN228">
+        <v>1.29</v>
+      </c>
+      <c r="BO228">
+        <v>3.88</v>
+      </c>
+      <c r="BP228">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -48082,7 +48082,7 @@
         <v>3</v>
       </c>
       <c r="AV227">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW227">
         <v>9</v>
@@ -48091,10 +48091,10 @@
         <v>10</v>
       </c>
       <c r="AY227">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ227">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA227">
         <v>5</v>
@@ -48303,13 +48303,13 @@
         <v>20</v>
       </c>
       <c r="BA228">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB228">
         <v>6</v>
       </c>
       <c r="BC228">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD228">
         <v>2.05</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="335">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1015,6 +1015,9 @@
     <t>['45+1', '63', '90+2']</t>
   </si>
   <si>
+    <t>['43', '50', '90+8']</t>
+  </si>
+  <si>
     <t>['10']</t>
   </si>
 </sst>
@@ -1377,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP228"/>
+  <dimension ref="A1:BP229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2744,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ7">
         <v>1.37</v>
@@ -3777,7 +3780,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ12">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4598,7 +4601,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ16">
         <v>1.3</v>
@@ -5219,7 +5222,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ19">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -7485,7 +7488,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR30">
         <v>1.84</v>
@@ -8718,7 +8721,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ36">
         <v>1.4</v>
@@ -10987,7 +10990,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ47">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR47">
         <v>1.92</v>
@@ -11190,7 +11193,7 @@
         <v>0.25</v>
       </c>
       <c r="AP48">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -12017,7 +12020,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ52">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR52">
         <v>1.65</v>
@@ -13044,7 +13047,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ57">
         <v>1.42</v>
@@ -14489,7 +14492,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ64">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR64">
         <v>1.38</v>
@@ -15516,7 +15519,7 @@
         <v>0.75</v>
       </c>
       <c r="AP69">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ69">
         <v>0.9399999999999999</v>
@@ -16549,7 +16552,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ74">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR74">
         <v>1.19</v>
@@ -18606,7 +18609,7 @@
         <v>1.17</v>
       </c>
       <c r="AP84">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ84">
         <v>1.21</v>
@@ -20463,7 +20466,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR93">
         <v>1.86</v>
@@ -22317,7 +22320,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ102">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22520,7 +22523,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ103">
         <v>0.79</v>
@@ -22726,7 +22729,7 @@
         <v>0.78</v>
       </c>
       <c r="AP104">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ104">
         <v>0.84</v>
@@ -24583,7 +24586,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ113">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR113">
         <v>1.61</v>
@@ -27052,7 +27055,7 @@
         <v>1.9</v>
       </c>
       <c r="AP125">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ125">
         <v>1.33</v>
@@ -27876,10 +27879,10 @@
         <v>1.1</v>
       </c>
       <c r="AP129">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ129">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR129">
         <v>1.62</v>
@@ -29527,7 +29530,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ137">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR137">
         <v>1.8</v>
@@ -31172,7 +31175,7 @@
         <v>0.91</v>
       </c>
       <c r="AP145">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ145">
         <v>0.9399999999999999</v>
@@ -31996,7 +31999,7 @@
         <v>0.36</v>
       </c>
       <c r="AP149">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ149">
         <v>1</v>
@@ -33441,7 +33444,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ156">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR156">
         <v>1.6</v>
@@ -33850,7 +33853,7 @@
         <v>1.54</v>
       </c>
       <c r="AP158">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ158">
         <v>1.37</v>
@@ -34471,7 +34474,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ161">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR161">
         <v>1.26</v>
@@ -36528,10 +36531,10 @@
         <v>1.29</v>
       </c>
       <c r="AP171">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ171">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR171">
         <v>1.62</v>
@@ -38591,7 +38594,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ181">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR181">
         <v>1.72</v>
@@ -39000,7 +39003,7 @@
         <v>1.4</v>
       </c>
       <c r="AP183">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ183">
         <v>1.4</v>
@@ -40033,7 +40036,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ188">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR188">
         <v>1.62</v>
@@ -41678,7 +41681,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP196">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ196">
         <v>0.84</v>
@@ -45183,7 +45186,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ213">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR213">
         <v>1.54</v>
@@ -46004,7 +46007,7 @@
         <v>0.82</v>
       </c>
       <c r="AP217">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ217">
         <v>0.79</v>
@@ -47335,7 +47338,7 @@
         <v>69</v>
       </c>
       <c r="E224" s="2">
-        <v>45618.875</v>
+        <v>45619.08333333334</v>
       </c>
       <c r="F224">
         <v>38</v>
@@ -47461,22 +47464,22 @@
         <v>3.32</v>
       </c>
       <c r="AU224">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV224">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AW224">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AX224">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AY224">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="AZ224">
-        <v>28</v>
+        <v>-1</v>
       </c>
       <c r="BA224">
         <v>6</v>
@@ -47541,10 +47544,10 @@
         <v>69</v>
       </c>
       <c r="E225" s="2">
-        <v>45618.875</v>
+        <v>45619.08333333334</v>
       </c>
       <c r="F225">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G225" t="s">
         <v>78</v>
@@ -47667,22 +47670,22 @@
         <v>2.97</v>
       </c>
       <c r="AU225">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV225">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AW225">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AX225">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY225">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AZ225">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BA225">
         <v>9</v>
@@ -47747,7 +47750,7 @@
         <v>69</v>
       </c>
       <c r="E226" s="2">
-        <v>45618.875</v>
+        <v>45619.08333333334</v>
       </c>
       <c r="F226">
         <v>38</v>
@@ -47873,22 +47876,22 @@
         <v>2.93</v>
       </c>
       <c r="AU226">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV226">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW226">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX226">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AY226">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AZ226">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="BA226">
         <v>2</v>
@@ -48079,22 +48082,22 @@
         <v>2.94</v>
       </c>
       <c r="AU227">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AV227">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW227">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AX227">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AY227">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AZ227">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="BA227">
         <v>5</v>
@@ -48150,7 +48153,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>7710372</v>
+        <v>7710371</v>
       </c>
       <c r="C228" t="s">
         <v>68</v>
@@ -48165,55 +48168,55 @@
         <v>38</v>
       </c>
       <c r="G228" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H228" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J228">
         <v>1</v>
       </c>
       <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
         <v>3</v>
       </c>
-      <c r="L228">
-        <v>2</v>
-      </c>
-      <c r="M228">
-        <v>1</v>
-      </c>
       <c r="N228">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O228" t="s">
-        <v>234</v>
+        <v>125</v>
       </c>
       <c r="P228" t="s">
         <v>333</v>
       </c>
       <c r="Q228">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R228">
         <v>2.1</v>
       </c>
       <c r="S228">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T228">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U228">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V228">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W228">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X228">
         <v>9</v>
@@ -48222,13 +48225,13 @@
         <v>1.07</v>
       </c>
       <c r="Z228">
-        <v>2.24</v>
+        <v>2.35</v>
       </c>
       <c r="AA228">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB228">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AC228">
         <v>1.06</v>
@@ -48243,111 +48246,317 @@
         <v>3.1</v>
       </c>
       <c r="AG228">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AH228">
+        <v>1.75</v>
+      </c>
+      <c r="AI228">
         <v>1.8</v>
       </c>
-      <c r="AI228">
-        <v>1.73</v>
-      </c>
       <c r="AJ228">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AK228">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AL228">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM228">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AN228">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AO228">
-        <v>0.83</v>
+        <v>1.22</v>
       </c>
       <c r="AP228">
-        <v>1.53</v>
+        <v>1.21</v>
       </c>
       <c r="AQ228">
-        <v>0.79</v>
+        <v>1.32</v>
       </c>
       <c r="AR228">
-        <v>1.26</v>
+        <v>1.6</v>
       </c>
       <c r="AS228">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="AT228">
-        <v>2.73</v>
+        <v>3.03</v>
       </c>
       <c r="AU228">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AV228">
+        <v>-1</v>
+      </c>
+      <c r="AW228">
+        <v>-1</v>
+      </c>
+      <c r="AX228">
+        <v>-1</v>
+      </c>
+      <c r="AY228">
+        <v>-1</v>
+      </c>
+      <c r="AZ228">
+        <v>-1</v>
+      </c>
+      <c r="BA228">
         <v>5</v>
       </c>
-      <c r="AW228">
-        <v>7</v>
-      </c>
-      <c r="AX228">
-        <v>11</v>
-      </c>
-      <c r="AY228">
-        <v>17</v>
-      </c>
-      <c r="AZ228">
-        <v>20</v>
-      </c>
-      <c r="BA228">
-        <v>6</v>
-      </c>
       <c r="BB228">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC228">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD228">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BE228">
         <v>7.5</v>
       </c>
       <c r="BF228">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="BG228">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="BH228">
-        <v>2.4</v>
+        <v>2.73</v>
       </c>
       <c r="BI228">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="BJ228">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="BK228">
-        <v>2.43</v>
+        <v>2.15</v>
       </c>
       <c r="BL228">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="BM228">
-        <v>3.3</v>
+        <v>2.83</v>
       </c>
       <c r="BN228">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="BO228">
         <v>3.88</v>
       </c>
       <c r="BP228">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7710372</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45620.08333333334</v>
+      </c>
+      <c r="F229">
+        <v>38</v>
+      </c>
+      <c r="G229" t="s">
+        <v>81</v>
+      </c>
+      <c r="H229" t="s">
+        <v>79</v>
+      </c>
+      <c r="I229">
+        <v>2</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <v>3</v>
+      </c>
+      <c r="L229">
+        <v>2</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229">
+        <v>3</v>
+      </c>
+      <c r="O229" t="s">
+        <v>234</v>
+      </c>
+      <c r="P229" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q229">
+        <v>2.88</v>
+      </c>
+      <c r="R229">
+        <v>2.1</v>
+      </c>
+      <c r="S229">
+        <v>3.75</v>
+      </c>
+      <c r="T229">
+        <v>1.4</v>
+      </c>
+      <c r="U229">
+        <v>2.75</v>
+      </c>
+      <c r="V229">
+        <v>3</v>
+      </c>
+      <c r="W229">
+        <v>1.36</v>
+      </c>
+      <c r="X229">
+        <v>9</v>
+      </c>
+      <c r="Y229">
+        <v>1.07</v>
+      </c>
+      <c r="Z229">
+        <v>2.24</v>
+      </c>
+      <c r="AA229">
+        <v>3.2</v>
+      </c>
+      <c r="AB229">
+        <v>2.9</v>
+      </c>
+      <c r="AC229">
+        <v>1.06</v>
+      </c>
+      <c r="AD229">
+        <v>8.5</v>
+      </c>
+      <c r="AE229">
+        <v>1.33</v>
+      </c>
+      <c r="AF229">
+        <v>3.1</v>
+      </c>
+      <c r="AG229">
+        <v>2.02</v>
+      </c>
+      <c r="AH229">
+        <v>1.8</v>
+      </c>
+      <c r="AI229">
+        <v>1.73</v>
+      </c>
+      <c r="AJ229">
+        <v>2</v>
+      </c>
+      <c r="AK229">
+        <v>1.33</v>
+      </c>
+      <c r="AL229">
+        <v>1.25</v>
+      </c>
+      <c r="AM229">
+        <v>1.63</v>
+      </c>
+      <c r="AN229">
+        <v>1.44</v>
+      </c>
+      <c r="AO229">
+        <v>0.83</v>
+      </c>
+      <c r="AP229">
+        <v>1.53</v>
+      </c>
+      <c r="AQ229">
+        <v>0.79</v>
+      </c>
+      <c r="AR229">
+        <v>1.26</v>
+      </c>
+      <c r="AS229">
+        <v>1.47</v>
+      </c>
+      <c r="AT229">
+        <v>2.73</v>
+      </c>
+      <c r="AU229">
+        <v>-1</v>
+      </c>
+      <c r="AV229">
+        <v>-1</v>
+      </c>
+      <c r="AW229">
+        <v>-1</v>
+      </c>
+      <c r="AX229">
+        <v>-1</v>
+      </c>
+      <c r="AY229">
+        <v>-1</v>
+      </c>
+      <c r="AZ229">
+        <v>-1</v>
+      </c>
+      <c r="BA229">
+        <v>6</v>
+      </c>
+      <c r="BB229">
+        <v>6</v>
+      </c>
+      <c r="BC229">
+        <v>12</v>
+      </c>
+      <c r="BD229">
+        <v>2.05</v>
+      </c>
+      <c r="BE229">
+        <v>7.5</v>
+      </c>
+      <c r="BF229">
+        <v>2.05</v>
+      </c>
+      <c r="BG229">
+        <v>1.5</v>
+      </c>
+      <c r="BH229">
+        <v>2.4</v>
+      </c>
+      <c r="BI229">
+        <v>1.85</v>
+      </c>
+      <c r="BJ229">
+        <v>1.95</v>
+      </c>
+      <c r="BK229">
+        <v>2.43</v>
+      </c>
+      <c r="BL229">
+        <v>1.49</v>
+      </c>
+      <c r="BM229">
+        <v>3.3</v>
+      </c>
+      <c r="BN229">
+        <v>1.29</v>
+      </c>
+      <c r="BO229">
+        <v>3.88</v>
+      </c>
+      <c r="BP229">
         <v>1.21</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -48288,22 +48288,22 @@
         <v>3.03</v>
       </c>
       <c r="AU228">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV228">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AW228">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX228">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY228">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ228">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="BA228">
         <v>5</v>
